--- a/templates/templates.xlsx
+++ b/templates/templates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\skripsi_carin\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4463ED79-74D2-44B7-BF89-7723DFDAC65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63620BCE-CFE0-4C8A-BF79-32DE40C5612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6A8DDF09-1534-4300-8610-6B6E82D15D7D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>Nama kota 1</t>
+    <t>Sumbawa</t>
   </si>
 </sst>
 </file>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126C0464-5302-4259-8BA1-457E14093820}">
   <dimension ref="A1:D2101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206:B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1261,375 +1261,970 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B101" s="3">
+        <v>15870</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B102" s="3">
+        <v>15870</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B103" s="3">
+        <v>15870</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B104" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B105" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B106" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B107" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B108" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B109" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B110" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B111" s="3">
+        <v>15895</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B112" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B113" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B114" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B115" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B116" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B117" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B118" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B119" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B120" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B121" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B122" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B123" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B124" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B125" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B126" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B127" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B128" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B129" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B130" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B131" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B132" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B133" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B134" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B135" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B136" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B137" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B138" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B139" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B140" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B141" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B142" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B143" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B144" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B145" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B146" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B147" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B148" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B149" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B150" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B151" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B152" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B153" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B154" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B155" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B156" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B157" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B158" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B159" s="3">
+        <v>15895</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B160" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B161" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B162" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B163" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B164" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B165" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B166" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B167" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B168" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B169" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B170" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B171" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B172" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B173" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B174" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B175" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B176" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B177" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B178" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B179" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B180" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B181" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B182" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B183" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B184" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B185" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B186" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B187" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B188" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B189" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B190" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B191" s="3">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B192" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B193" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B194" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B195" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B196" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B197" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B198" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B199" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B200" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B201" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B202" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B203" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B204" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B205" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B206" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B207" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B208" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B209" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B210" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B211" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B212" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B213" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B214" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B215" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B216" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B217" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B218" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B219" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
